--- a/Grading template.xlsx
+++ b/Grading template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Lectures\#Moodle quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F092C665-333C-4B54-A683-673E81985D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE98CB1-BC34-426C-8F22-6CFC8109CAAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1620" windowWidth="26145" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIS" sheetId="1" r:id="rId1"/>
@@ -1949,7 +1949,7 @@
         <v/>
       </c>
       <c r="R2" s="23" t="e">
-        <f>IF(Q2&lt;&gt;"",IF(AND(Q2&lt;5,Q2&gt;=$T$2),5,IF(Q2&lt;5,ROUND(Q2,0),ROUND(2*Q2,0)/2)),NA())</f>
+        <f>IF(Q2&lt;&gt;"",IF(AND(Q2&lt;5,Q2&gt;=$T$2),5,IF(Q2&lt;5,ROUND(Q2,0),MIN(10,ROUND(2*Q2,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="T2" s="41">
@@ -1982,7 +1982,7 @@
         <v/>
       </c>
       <c r="R3" s="23" t="e">
-        <f t="shared" ref="R3:R66" si="2">IF(Q3&lt;&gt;"",IF(AND(Q3&lt;5,Q3&gt;=$T$2),5,IF(Q3&lt;5,ROUND(Q3,0),ROUND(2*Q3,0)/2)),NA())</f>
+        <f t="shared" ref="R3:R66" si="2">IF(Q3&lt;&gt;"",IF(AND(Q3&lt;5,Q3&gt;=$T$2),5,IF(Q3&lt;5,ROUND(Q3,0),MIN(10,ROUND(2*Q3,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AC3" s="17"/>
@@ -3631,7 +3631,7 @@
         <v/>
       </c>
       <c r="R67" s="23" t="e">
-        <f t="shared" ref="R67:R130" si="5">IF(Q67&lt;&gt;"",IF(AND(Q67&lt;5,Q67&gt;=$T$2),5,IF(Q67&lt;5,ROUND(Q67,0),ROUND(2*Q67,0)/2)),NA())</f>
+        <f t="shared" ref="R67:R130" si="5">IF(Q67&lt;&gt;"",IF(AND(Q67&lt;5,Q67&gt;=$T$2),5,IF(Q67&lt;5,ROUND(Q67,0),MIN(10,ROUND(2*Q67,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AC67" s="17"/>
@@ -5232,7 +5232,7 @@
         <v/>
       </c>
       <c r="R131" s="23" t="e">
-        <f t="shared" ref="R131:R194" si="8">IF(Q131&lt;&gt;"",IF(AND(Q131&lt;5,Q131&gt;=$T$2),5,IF(Q131&lt;5,ROUND(Q131,0),ROUND(2*Q131,0)/2)),NA())</f>
+        <f t="shared" ref="R131:R194" si="8">IF(Q131&lt;&gt;"",IF(AND(Q131&lt;5,Q131&gt;=$T$2),5,IF(Q131&lt;5,ROUND(Q131,0),MIN(10,ROUND(2*Q131,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AC131" s="17"/>
@@ -6832,7 +6832,7 @@
         <v/>
       </c>
       <c r="R195" s="23" t="e">
-        <f t="shared" ref="R195:R258" si="11">IF(Q195&lt;&gt;"",IF(AND(Q195&lt;5,Q195&gt;=$T$2),5,IF(Q195&lt;5,ROUND(Q195,0),ROUND(2*Q195,0)/2)),NA())</f>
+        <f t="shared" ref="R195:R258" si="11">IF(Q195&lt;&gt;"",IF(AND(Q195&lt;5,Q195&gt;=$T$2),5,IF(Q195&lt;5,ROUND(Q195,0),MIN(10,ROUND(2*Q195,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AC195" s="17"/>
@@ -8432,7 +8432,7 @@
         <v/>
       </c>
       <c r="R259" s="23" t="e">
-        <f t="shared" ref="R259:R322" si="14">IF(Q259&lt;&gt;"",IF(AND(Q259&lt;5,Q259&gt;=$T$2),5,IF(Q259&lt;5,ROUND(Q259,0),ROUND(2*Q259,0)/2)),NA())</f>
+        <f t="shared" ref="R259:R322" si="14">IF(Q259&lt;&gt;"",IF(AND(Q259&lt;5,Q259&gt;=$T$2),5,IF(Q259&lt;5,ROUND(Q259,0),MIN(10,ROUND(2*Q259,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AC259" s="17"/>
@@ -9856,7 +9856,7 @@
         <v/>
       </c>
       <c r="R323" s="23" t="e">
-        <f t="shared" ref="R323:R386" si="17">IF(Q323&lt;&gt;"",IF(AND(Q323&lt;5,Q323&gt;=$T$2),5,IF(Q323&lt;5,ROUND(Q323,0),ROUND(2*Q323,0)/2)),NA())</f>
+        <f t="shared" ref="R323:R386" si="17">IF(Q323&lt;&gt;"",IF(AND(Q323&lt;5,Q323&gt;=$T$2),5,IF(Q323&lt;5,ROUND(Q323,0),MIN(10,ROUND(2*Q323,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11264,7 +11264,7 @@
         <v/>
       </c>
       <c r="R387" s="23" t="e">
-        <f t="shared" ref="R387:R450" si="20">IF(Q387&lt;&gt;"",IF(AND(Q387&lt;5,Q387&gt;=$T$2),5,IF(Q387&lt;5,ROUND(Q387,0),ROUND(2*Q387,0)/2)),NA())</f>
+        <f t="shared" ref="R387:R450" si="20">IF(Q387&lt;&gt;"",IF(AND(Q387&lt;5,Q387&gt;=$T$2),5,IF(Q387&lt;5,ROUND(Q387,0),MIN(10,ROUND(2*Q387,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12672,7 +12672,7 @@
         <v/>
       </c>
       <c r="R451" s="23" t="e">
-        <f t="shared" ref="R451:R514" si="23">IF(Q451&lt;&gt;"",IF(AND(Q451&lt;5,Q451&gt;=$T$2),5,IF(Q451&lt;5,ROUND(Q451,0),ROUND(2*Q451,0)/2)),NA())</f>
+        <f t="shared" ref="R451:R514" si="23">IF(Q451&lt;&gt;"",IF(AND(Q451&lt;5,Q451&gt;=$T$2),5,IF(Q451&lt;5,ROUND(Q451,0),MIN(10,ROUND(2*Q451,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
         <v/>
       </c>
       <c r="R515" s="23" t="e">
-        <f t="shared" ref="R515:R578" si="26">IF(Q515&lt;&gt;"",IF(AND(Q515&lt;5,Q515&gt;=$T$2),5,IF(Q515&lt;5,ROUND(Q515,0),ROUND(2*Q515,0)/2)),NA())</f>
+        <f t="shared" ref="R515:R578" si="26">IF(Q515&lt;&gt;"",IF(AND(Q515&lt;5,Q515&gt;=$T$2),5,IF(Q515&lt;5,ROUND(Q515,0),MIN(10,ROUND(2*Q515,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15488,7 +15488,7 @@
         <v/>
       </c>
       <c r="R579" s="23" t="e">
-        <f t="shared" ref="R579:R642" si="29">IF(Q579&lt;&gt;"",IF(AND(Q579&lt;5,Q579&gt;=$T$2),5,IF(Q579&lt;5,ROUND(Q579,0),ROUND(2*Q579,0)/2)),NA())</f>
+        <f t="shared" ref="R579:R642" si="29">IF(Q579&lt;&gt;"",IF(AND(Q579&lt;5,Q579&gt;=$T$2),5,IF(Q579&lt;5,ROUND(Q579,0),MIN(10,ROUND(2*Q579,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16896,7 +16896,7 @@
         <v/>
       </c>
       <c r="R643" s="23" t="e">
-        <f t="shared" ref="R643:R706" si="32">IF(Q643&lt;&gt;"",IF(AND(Q643&lt;5,Q643&gt;=$T$2),5,IF(Q643&lt;5,ROUND(Q643,0),ROUND(2*Q643,0)/2)),NA())</f>
+        <f t="shared" ref="R643:R706" si="32">IF(Q643&lt;&gt;"",IF(AND(Q643&lt;5,Q643&gt;=$T$2),5,IF(Q643&lt;5,ROUND(Q643,0),MIN(10,ROUND(2*Q643,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -18304,7 +18304,7 @@
         <v/>
       </c>
       <c r="R707" s="23" t="e">
-        <f t="shared" ref="R707:R770" si="35">IF(Q707&lt;&gt;"",IF(AND(Q707&lt;5,Q707&gt;=$T$2),5,IF(Q707&lt;5,ROUND(Q707,0),ROUND(2*Q707,0)/2)),NA())</f>
+        <f t="shared" ref="R707:R770" si="35">IF(Q707&lt;&gt;"",IF(AND(Q707&lt;5,Q707&gt;=$T$2),5,IF(Q707&lt;5,ROUND(Q707,0),MIN(10,ROUND(2*Q707,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -19712,7 +19712,7 @@
         <v/>
       </c>
       <c r="R771" s="23" t="e">
-        <f t="shared" ref="R771:R834" si="38">IF(Q771&lt;&gt;"",IF(AND(Q771&lt;5,Q771&gt;=$T$2),5,IF(Q771&lt;5,ROUND(Q771,0),ROUND(2*Q771,0)/2)),NA())</f>
+        <f t="shared" ref="R771:R834" si="38">IF(Q771&lt;&gt;"",IF(AND(Q771&lt;5,Q771&gt;=$T$2),5,IF(Q771&lt;5,ROUND(Q771,0),MIN(10,ROUND(2*Q771,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21120,7 +21120,7 @@
         <v/>
       </c>
       <c r="R835" s="23" t="e">
-        <f t="shared" ref="R835:R898" si="41">IF(Q835&lt;&gt;"",IF(AND(Q835&lt;5,Q835&gt;=$T$2),5,IF(Q835&lt;5,ROUND(Q835,0),ROUND(2*Q835,0)/2)),NA())</f>
+        <f t="shared" ref="R835:R898" si="41">IF(Q835&lt;&gt;"",IF(AND(Q835&lt;5,Q835&gt;=$T$2),5,IF(Q835&lt;5,ROUND(Q835,0),MIN(10,ROUND(2*Q835,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22528,7 +22528,7 @@
         <v/>
       </c>
       <c r="R899" s="23" t="e">
-        <f t="shared" ref="R899:R962" si="44">IF(Q899&lt;&gt;"",IF(AND(Q899&lt;5,Q899&gt;=$T$2),5,IF(Q899&lt;5,ROUND(Q899,0),ROUND(2*Q899,0)/2)),NA())</f>
+        <f t="shared" ref="R899:R962" si="44">IF(Q899&lt;&gt;"",IF(AND(Q899&lt;5,Q899&gt;=$T$2),5,IF(Q899&lt;5,ROUND(Q899,0),MIN(10,ROUND(2*Q899,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23936,7 +23936,7 @@
         <v/>
       </c>
       <c r="R963" s="23" t="e">
-        <f t="shared" ref="R963:R1000" si="47">IF(Q963&lt;&gt;"",IF(AND(Q963&lt;5,Q963&gt;=$T$2),5,IF(Q963&lt;5,ROUND(Q963,0),ROUND(2*Q963,0)/2)),NA())</f>
+        <f t="shared" ref="R963:R1000" si="47">IF(Q963&lt;&gt;"",IF(AND(Q963&lt;5,Q963&gt;=$T$2),5,IF(Q963&lt;5,ROUND(Q963,0),MIN(10,ROUND(2*Q963,0)/2))),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
